--- a/docs/lags.xlsx
+++ b/docs/lags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\ts_projects\tsproj\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangzf/tsproj/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027F773E-1ECC-40FF-886E-49194DB45EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D8D839-3CE9-3247-AB55-EFF0F9716820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="500" windowWidth="32660" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3319,7 +3319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -3355,12 +3355,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3400,25 +3394,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3431,23 +3412,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3455,6 +3427,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3743,23 +3721,23 @@
       <selection pane="bottomLeft" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="5.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="7.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.83203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -3799,16 +3777,16 @@
       <c r="M1" s="8" t="s">
         <v>779</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="58" t="s">
         <v>784</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="4">
@@ -9920,7 +9898,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="193" spans="1:21" ht="14.4" thickBot="1">
+    <row r="193" spans="1:21" ht="16" thickBot="1">
       <c r="A193" s="4">
         <v>45722.989577835651</v>
       </c>
@@ -15557,7 +15535,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="289" spans="1:23" ht="14.4" thickBot="1">
+    <row r="289" spans="1:23" ht="16" thickBot="1">
       <c r="A289" s="1">
         <v>45723.989577835651</v>
       </c>
@@ -16803,7 +16781,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="385" spans="1:23" ht="14.4" thickBot="1">
+    <row r="385" spans="1:23" ht="16" thickBot="1">
       <c r="A385" s="9">
         <v>45724.010411053241</v>
       </c>
@@ -16829,1761 +16807,1758 @@
   <dimension ref="A1:AX34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" style="40" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.77734375" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" style="40" customWidth="1"/>
-    <col min="8" max="9" width="7.77734375" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="40" customWidth="1"/>
-    <col min="11" max="12" width="6.77734375" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="38" customWidth="1"/>
+    <col min="8" max="9" width="7.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" style="38" customWidth="1"/>
+    <col min="11" max="12" width="6.83203125" style="38" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.77734375" customWidth="1"/>
-    <col min="25" max="26" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.77734375" customWidth="1"/>
-    <col min="28" max="30" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.83203125" customWidth="1"/>
+    <col min="25" max="26" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.83203125" customWidth="1"/>
+    <col min="28" max="30" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="34" max="35" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="37" max="39" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="47" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="48" max="50" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="47" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="50" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="33" t="s">
         <v>789</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="33" t="s">
         <v>790</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="34" t="s">
         <v>788</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="35" t="s">
         <v>791</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="35" t="s">
         <v>792</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37" t="s">
+      <c r="G1" s="35"/>
+      <c r="H1" s="35" t="s">
         <v>793</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="35" t="s">
         <v>794</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37" t="s">
+      <c r="J1" s="35"/>
+      <c r="K1" s="35" t="s">
         <v>795</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="35" t="s">
         <v>796</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="35" t="s">
         <v>796</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="44" t="s">
         <v>789</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="41" t="s">
         <v>815</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="44" t="s">
         <v>790</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="41" t="s">
         <v>816</v>
       </c>
-      <c r="T1" s="47" t="s">
+      <c r="T1" s="45" t="s">
         <v>788</v>
       </c>
-      <c r="U1" s="44" t="s">
+      <c r="U1" s="42" t="s">
         <v>817</v>
       </c>
-      <c r="V1" s="37" t="s">
+      <c r="V1" s="35" t="s">
         <v>791</v>
       </c>
-      <c r="W1" s="37" t="s">
+      <c r="W1" s="35" t="s">
         <v>792</v>
       </c>
-      <c r="X1" s="37" t="s">
+      <c r="X1" s="35" t="s">
         <v>953</v>
       </c>
-      <c r="Y1" s="37" t="s">
+      <c r="Y1" s="35" t="s">
         <v>793</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="Z1" s="35" t="s">
         <v>794</v>
       </c>
-      <c r="AA1" s="37" t="s">
+      <c r="AA1" s="35" t="s">
         <v>951</v>
       </c>
-      <c r="AB1" s="37" t="s">
+      <c r="AB1" s="35" t="s">
         <v>795</v>
       </c>
-      <c r="AC1" s="37" t="s">
+      <c r="AC1" s="35" t="s">
         <v>796</v>
       </c>
-      <c r="AD1" s="37" t="s">
+      <c r="AD1" s="35" t="s">
         <v>796</v>
       </c>
-      <c r="AF1" s="45" t="s">
+      <c r="AF1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="AG1" s="46" t="s">
+      <c r="AG1" s="44" t="s">
         <v>789</v>
       </c>
-      <c r="AH1" s="43" t="s">
+      <c r="AH1" s="41" t="s">
         <v>908</v>
       </c>
-      <c r="AI1" s="43" t="s">
+      <c r="AI1" s="41" t="s">
         <v>909</v>
       </c>
-      <c r="AJ1" s="46" t="s">
+      <c r="AJ1" s="44" t="s">
         <v>790</v>
       </c>
-      <c r="AK1" s="43" t="s">
+      <c r="AK1" s="41" t="s">
         <v>910</v>
       </c>
-      <c r="AL1" s="43" t="s">
+      <c r="AL1" s="41" t="s">
         <v>911</v>
       </c>
-      <c r="AM1" s="47" t="s">
+      <c r="AM1" s="45" t="s">
         <v>788</v>
       </c>
-      <c r="AN1" s="44" t="s">
+      <c r="AN1" s="42" t="s">
         <v>912</v>
       </c>
-      <c r="AO1" s="44" t="s">
+      <c r="AO1" s="42" t="s">
         <v>913</v>
       </c>
-      <c r="AP1" s="50" t="s">
+      <c r="AP1" s="47" t="s">
         <v>791</v>
       </c>
-      <c r="AQ1" s="37" t="s">
+      <c r="AQ1" s="35" t="s">
         <v>792</v>
       </c>
-      <c r="AR1" s="37" t="s">
+      <c r="AR1" s="35" t="s">
         <v>954</v>
       </c>
-      <c r="AS1" s="37" t="s">
+      <c r="AS1" s="35" t="s">
         <v>793</v>
       </c>
-      <c r="AT1" s="37" t="s">
+      <c r="AT1" s="35" t="s">
         <v>794</v>
       </c>
-      <c r="AU1" s="37" t="s">
+      <c r="AU1" s="35" t="s">
         <v>952</v>
       </c>
-      <c r="AV1" s="37" t="s">
+      <c r="AV1" s="35" t="s">
         <v>795</v>
       </c>
-      <c r="AW1" s="37" t="s">
+      <c r="AW1" s="35" t="s">
         <v>796</v>
       </c>
-      <c r="AX1" s="37" t="s">
+      <c r="AX1" s="35" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="2" spans="1:50">
-      <c r="A2" s="38">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="36" t="s">
         <v>797</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="36" t="s">
         <v>806</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="36">
         <v>1</v>
       </c>
-      <c r="E2" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="38"/>
+      <c r="E2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="36"/>
+      <c r="AV2" s="36"/>
+      <c r="AW2" s="36"/>
     </row>
     <row r="3" spans="1:50">
-      <c r="A3" s="38">
-        <v>2</v>
-      </c>
-      <c r="B3" s="38" t="s">
+      <c r="A3" s="36">
+        <v>2</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>798</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="36" t="s">
         <v>814</v>
       </c>
-      <c r="D3" s="38">
-        <v>2</v>
-      </c>
-      <c r="E3" s="38" t="s">
+      <c r="D3" s="36">
+        <v>2</v>
+      </c>
+      <c r="E3" s="36" t="s">
         <v>797</v>
       </c>
-      <c r="F3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="38" t="s">
+      <c r="F3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="36" t="s">
         <v>806</v>
       </c>
-      <c r="I3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="38">
+      <c r="I3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="36">
         <v>1</v>
       </c>
-      <c r="L3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="51"/>
-      <c r="AH3" s="51"/>
-      <c r="AI3" s="51"/>
-      <c r="AJ3" s="51"/>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="51"/>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="56"/>
-      <c r="AP3" s="38"/>
-      <c r="AQ3" s="38"/>
-      <c r="AR3" s="38"/>
-      <c r="AS3" s="38"/>
-      <c r="AT3" s="38"/>
-      <c r="AU3" s="38"/>
-      <c r="AV3" s="38"/>
-      <c r="AW3" s="38"/>
+      <c r="L3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="36"/>
+      <c r="AQ3" s="36"/>
+      <c r="AR3" s="36"/>
+      <c r="AS3" s="36"/>
+      <c r="AT3" s="36"/>
+      <c r="AU3" s="36"/>
+      <c r="AV3" s="36"/>
+      <c r="AW3" s="36"/>
     </row>
     <row r="4" spans="1:50">
-      <c r="A4" s="64">
+      <c r="A4" s="36">
         <v>3</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="36" t="s">
         <v>799</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="39" t="s">
         <v>807</v>
       </c>
-      <c r="D4" s="65">
+      <c r="D4" s="39">
         <v>3</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="39" t="s">
         <v>798</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="39" t="s">
         <v>797</v>
       </c>
-      <c r="G4" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="65" t="s">
+      <c r="G4" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="39" t="s">
         <v>814</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="39" t="s">
         <v>806</v>
       </c>
-      <c r="J4" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="65">
-        <v>2</v>
-      </c>
-      <c r="L4" s="65">
+      <c r="J4" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="39">
+        <v>2</v>
+      </c>
+      <c r="L4" s="39">
         <v>1</v>
       </c>
-      <c r="M4" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
+      <c r="M4" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
     </row>
     <row r="5" spans="1:50">
-      <c r="A5" s="39">
+      <c r="A5" s="37">
         <v>4</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="37" t="s">
         <v>800</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="37" t="s">
         <v>808</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="37">
         <v>4</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="37" t="s">
         <v>799</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="37" t="s">
         <v>798</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="37" t="s">
         <v>797</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="37" t="s">
         <v>807</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="37" t="s">
         <v>814</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="37" t="s">
         <v>806</v>
       </c>
-      <c r="K5" s="39">
+      <c r="K5" s="37">
         <v>3</v>
       </c>
-      <c r="L5" s="39">
-        <v>2</v>
-      </c>
-      <c r="M5" s="39">
+      <c r="L5" s="37">
+        <v>2</v>
+      </c>
+      <c r="M5" s="37">
         <v>1</v>
       </c>
-      <c r="O5" s="39">
+      <c r="O5" s="37">
         <v>4</v>
       </c>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="37" t="s">
         <v>800</v>
       </c>
-      <c r="Q5" s="39" t="s">
+      <c r="Q5" s="37" t="s">
         <v>827</v>
       </c>
-      <c r="R5" s="39" t="s">
+      <c r="R5" s="37" t="s">
         <v>808</v>
       </c>
-      <c r="S5" s="39" t="s">
+      <c r="S5" s="37" t="s">
         <v>826</v>
       </c>
-      <c r="T5" s="39">
+      <c r="T5" s="37">
         <v>4</v>
       </c>
-      <c r="U5" s="39" t="s">
+      <c r="U5" s="37" t="s">
         <v>821</v>
       </c>
-      <c r="V5" s="39" t="s">
+      <c r="V5" s="37" t="s">
         <v>799</v>
       </c>
-      <c r="W5" s="39" t="s">
+      <c r="W5" s="37" t="s">
         <v>798</v>
       </c>
-      <c r="X5" s="39" t="s">
+      <c r="X5" s="37" t="s">
         <v>797</v>
       </c>
-      <c r="Y5" s="39" t="s">
+      <c r="Y5" s="37" t="s">
         <v>807</v>
       </c>
-      <c r="Z5" s="39" t="s">
+      <c r="Z5" s="37" t="s">
         <v>814</v>
       </c>
-      <c r="AA5" s="39" t="s">
+      <c r="AA5" s="37" t="s">
         <v>806</v>
       </c>
-      <c r="AB5" s="39">
+      <c r="AB5" s="37">
         <v>3</v>
       </c>
-      <c r="AC5" s="39">
-        <v>2</v>
-      </c>
-      <c r="AD5" s="39">
+      <c r="AC5" s="37">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="37">
         <v>1</v>
       </c>
-      <c r="AF5" s="57">
+      <c r="AF5" s="50">
         <v>4</v>
       </c>
-      <c r="AG5" s="52" t="s">
+      <c r="AG5" s="37" t="s">
         <v>800</v>
       </c>
-      <c r="AH5" s="52" t="s">
+      <c r="AH5" s="37" t="s">
         <v>914</v>
       </c>
-      <c r="AI5" s="52" t="s">
+      <c r="AI5" s="37" t="s">
         <v>938</v>
       </c>
-      <c r="AJ5" s="52" t="s">
+      <c r="AJ5" s="37" t="s">
         <v>808</v>
       </c>
-      <c r="AK5" s="52" t="s">
+      <c r="AK5" s="37" t="s">
         <v>920</v>
       </c>
-      <c r="AL5" s="52" t="s">
+      <c r="AL5" s="37" t="s">
         <v>944</v>
       </c>
-      <c r="AM5" s="52">
+      <c r="AM5" s="37">
         <v>4</v>
       </c>
-      <c r="AN5" s="52" t="s">
+      <c r="AN5" s="37" t="s">
         <v>926</v>
       </c>
-      <c r="AO5" s="58" t="s">
+      <c r="AO5" s="51" t="s">
         <v>932</v>
       </c>
-      <c r="AP5" s="39" t="s">
+      <c r="AP5" s="37" t="s">
         <v>799</v>
       </c>
-      <c r="AQ5" s="39" t="s">
+      <c r="AQ5" s="37" t="s">
         <v>798</v>
       </c>
-      <c r="AR5" s="39" t="s">
+      <c r="AR5" s="37" t="s">
         <v>797</v>
       </c>
-      <c r="AS5" s="39" t="s">
+      <c r="AS5" s="37" t="s">
         <v>807</v>
       </c>
-      <c r="AT5" s="39" t="s">
+      <c r="AT5" s="37" t="s">
         <v>814</v>
       </c>
-      <c r="AU5" s="39" t="s">
+      <c r="AU5" s="37" t="s">
         <v>806</v>
       </c>
-      <c r="AV5" s="39">
+      <c r="AV5" s="37">
         <v>3</v>
       </c>
-      <c r="AW5" s="39">
-        <v>2</v>
-      </c>
-      <c r="AX5" s="39">
+      <c r="AW5" s="37">
+        <v>2</v>
+      </c>
+      <c r="AX5" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:50">
-      <c r="A6" s="39">
+      <c r="A6" s="37">
         <v>5</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="37" t="s">
         <v>801</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="37" t="s">
         <v>809</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="37">
         <v>5</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="37" t="s">
         <v>800</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="37" t="s">
         <v>799</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="37" t="s">
         <v>798</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="37" t="s">
         <v>808</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="37" t="s">
         <v>807</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="37" t="s">
         <v>814</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="37">
         <v>4</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="37">
         <v>3</v>
       </c>
-      <c r="M6" s="39">
-        <v>2</v>
-      </c>
-      <c r="O6" s="39">
+      <c r="M6" s="37">
+        <v>2</v>
+      </c>
+      <c r="O6" s="37">
         <v>5</v>
       </c>
-      <c r="P6" s="39" t="s">
+      <c r="P6" s="37" t="s">
         <v>801</v>
       </c>
-      <c r="Q6" s="39" t="s">
+      <c r="Q6" s="37" t="s">
         <v>828</v>
       </c>
-      <c r="R6" s="39" t="s">
+      <c r="R6" s="37" t="s">
         <v>809</v>
       </c>
-      <c r="S6" s="39" t="s">
+      <c r="S6" s="37" t="s">
         <v>825</v>
       </c>
-      <c r="T6" s="39">
+      <c r="T6" s="37">
         <v>5</v>
       </c>
-      <c r="U6" s="39" t="s">
+      <c r="U6" s="37" t="s">
         <v>822</v>
       </c>
-      <c r="V6" s="39" t="s">
+      <c r="V6" s="37" t="s">
         <v>800</v>
       </c>
-      <c r="W6" s="39" t="s">
+      <c r="W6" s="37" t="s">
         <v>799</v>
       </c>
-      <c r="X6" s="39" t="s">
+      <c r="X6" s="37" t="s">
         <v>798</v>
       </c>
-      <c r="Y6" s="39" t="s">
+      <c r="Y6" s="37" t="s">
         <v>808</v>
       </c>
-      <c r="Z6" s="39" t="s">
+      <c r="Z6" s="37" t="s">
         <v>807</v>
       </c>
-      <c r="AA6" s="39" t="s">
+      <c r="AA6" s="37" t="s">
         <v>814</v>
       </c>
-      <c r="AB6" s="39">
+      <c r="AB6" s="37">
         <v>4</v>
       </c>
-      <c r="AC6" s="39">
+      <c r="AC6" s="37">
         <v>3</v>
       </c>
-      <c r="AD6" s="39">
-        <v>2</v>
-      </c>
-      <c r="AF6" s="57">
+      <c r="AD6" s="37">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="50">
         <v>5</v>
       </c>
-      <c r="AG6" s="52" t="s">
+      <c r="AG6" s="37" t="s">
         <v>801</v>
       </c>
-      <c r="AH6" s="52" t="s">
+      <c r="AH6" s="37" t="s">
         <v>915</v>
       </c>
-      <c r="AI6" s="52" t="s">
+      <c r="AI6" s="37" t="s">
         <v>939</v>
       </c>
-      <c r="AJ6" s="52" t="s">
+      <c r="AJ6" s="37" t="s">
         <v>809</v>
       </c>
-      <c r="AK6" s="52" t="s">
+      <c r="AK6" s="37" t="s">
         <v>922</v>
       </c>
-      <c r="AL6" s="52" t="s">
+      <c r="AL6" s="37" t="s">
         <v>945</v>
       </c>
-      <c r="AM6" s="52">
+      <c r="AM6" s="37">
         <v>5</v>
       </c>
-      <c r="AN6" s="52" t="s">
+      <c r="AN6" s="37" t="s">
         <v>927</v>
       </c>
-      <c r="AO6" s="58" t="s">
+      <c r="AO6" s="51" t="s">
         <v>933</v>
       </c>
-      <c r="AP6" s="39" t="s">
+      <c r="AP6" s="37" t="s">
         <v>800</v>
       </c>
-      <c r="AQ6" s="39" t="s">
+      <c r="AQ6" s="37" t="s">
         <v>799</v>
       </c>
-      <c r="AR6" s="39" t="s">
+      <c r="AR6" s="37" t="s">
         <v>798</v>
       </c>
-      <c r="AS6" s="39" t="s">
+      <c r="AS6" s="37" t="s">
         <v>808</v>
       </c>
-      <c r="AT6" s="39" t="s">
+      <c r="AT6" s="37" t="s">
         <v>807</v>
       </c>
-      <c r="AU6" s="39" t="s">
+      <c r="AU6" s="37" t="s">
         <v>814</v>
       </c>
-      <c r="AV6" s="39">
+      <c r="AV6" s="37">
         <v>4</v>
       </c>
-      <c r="AW6" s="39">
+      <c r="AW6" s="37">
         <v>3</v>
       </c>
-      <c r="AX6" s="39">
+      <c r="AX6" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:50">
-      <c r="A7" s="39">
+      <c r="A7" s="37">
         <v>6</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="37" t="s">
         <v>802</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="37" t="s">
         <v>810</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="37">
         <v>6</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="37" t="s">
         <v>801</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="37" t="s">
         <v>800</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="37" t="s">
         <v>799</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="H7" s="37" t="s">
         <v>809</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="37" t="s">
         <v>808</v>
       </c>
-      <c r="J7" s="39" t="s">
+      <c r="J7" s="37" t="s">
         <v>807</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K7" s="37">
         <v>5</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="37">
         <v>4</v>
       </c>
-      <c r="M7" s="39">
+      <c r="M7" s="37">
         <v>3</v>
       </c>
-      <c r="O7" s="39">
+      <c r="O7" s="37">
         <v>6</v>
       </c>
-      <c r="P7" s="39" t="s">
+      <c r="P7" s="37" t="s">
         <v>802</v>
       </c>
-      <c r="Q7" s="39" t="s">
+      <c r="Q7" s="37" t="s">
         <v>829</v>
       </c>
-      <c r="R7" s="39" t="s">
+      <c r="R7" s="37" t="s">
         <v>810</v>
       </c>
-      <c r="S7" s="39" t="s">
+      <c r="S7" s="37" t="s">
         <v>824</v>
       </c>
-      <c r="T7" s="39">
+      <c r="T7" s="37">
         <v>6</v>
       </c>
-      <c r="U7" s="39" t="s">
+      <c r="U7" s="37" t="s">
         <v>823</v>
       </c>
-      <c r="V7" s="39" t="s">
+      <c r="V7" s="37" t="s">
         <v>801</v>
       </c>
-      <c r="W7" s="39" t="s">
+      <c r="W7" s="37" t="s">
         <v>955</v>
       </c>
-      <c r="X7" s="39" t="s">
+      <c r="X7" s="37" t="s">
         <v>799</v>
       </c>
-      <c r="Y7" s="39" t="s">
+      <c r="Y7" s="37" t="s">
         <v>809</v>
       </c>
-      <c r="Z7" s="39" t="s">
+      <c r="Z7" s="37" t="s">
         <v>962</v>
       </c>
-      <c r="AA7" s="39" t="s">
+      <c r="AA7" s="37" t="s">
         <v>807</v>
       </c>
-      <c r="AB7" s="39">
+      <c r="AB7" s="37">
         <v>5</v>
       </c>
-      <c r="AC7" s="39">
+      <c r="AC7" s="37">
         <v>4</v>
       </c>
-      <c r="AD7" s="39">
+      <c r="AD7" s="37">
         <v>3</v>
       </c>
-      <c r="AF7" s="57">
+      <c r="AF7" s="50">
         <v>6</v>
       </c>
-      <c r="AG7" s="52" t="s">
+      <c r="AG7" s="37" t="s">
         <v>802</v>
       </c>
-      <c r="AH7" s="52" t="s">
+      <c r="AH7" s="37" t="s">
         <v>916</v>
       </c>
-      <c r="AI7" s="52" t="s">
+      <c r="AI7" s="37" t="s">
         <v>940</v>
       </c>
-      <c r="AJ7" s="52" t="s">
+      <c r="AJ7" s="37" t="s">
         <v>810</v>
       </c>
-      <c r="AK7" s="52" t="s">
+      <c r="AK7" s="37" t="s">
         <v>921</v>
       </c>
-      <c r="AL7" s="52" t="s">
+      <c r="AL7" s="37" t="s">
         <v>946</v>
       </c>
-      <c r="AM7" s="52">
+      <c r="AM7" s="37">
         <v>6</v>
       </c>
-      <c r="AN7" s="52" t="s">
+      <c r="AN7" s="37" t="s">
         <v>928</v>
       </c>
-      <c r="AO7" s="58" t="s">
+      <c r="AO7" s="51" t="s">
         <v>934</v>
       </c>
-      <c r="AP7" s="39" t="s">
+      <c r="AP7" s="37" t="s">
         <v>801</v>
       </c>
-      <c r="AQ7" s="39" t="s">
+      <c r="AQ7" s="37" t="s">
         <v>800</v>
       </c>
-      <c r="AR7" s="39" t="s">
+      <c r="AR7" s="37" t="s">
         <v>799</v>
       </c>
-      <c r="AS7" s="39" t="s">
+      <c r="AS7" s="37" t="s">
         <v>809</v>
       </c>
-      <c r="AT7" s="39" t="s">
+      <c r="AT7" s="37" t="s">
         <v>808</v>
       </c>
-      <c r="AU7" s="39" t="s">
+      <c r="AU7" s="37" t="s">
         <v>807</v>
       </c>
-      <c r="AV7" s="39">
+      <c r="AV7" s="37">
         <v>5</v>
       </c>
-      <c r="AW7" s="39">
+      <c r="AW7" s="37">
         <v>4</v>
       </c>
-      <c r="AX7" s="39">
+      <c r="AX7" s="37">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:50">
-      <c r="A8" s="42">
+      <c r="A8" s="40">
         <v>7</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="40" t="s">
         <v>803</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="40" t="s">
         <v>811</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="40">
         <v>7</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="40" t="s">
         <v>802</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="40" t="s">
         <v>801</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="40" t="s">
         <v>800</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="40" t="s">
         <v>810</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="40" t="s">
         <v>809</v>
       </c>
-      <c r="J8" s="42" t="s">
+      <c r="J8" s="40" t="s">
         <v>808</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="40">
         <v>6</v>
       </c>
-      <c r="L8" s="42">
+      <c r="L8" s="40">
         <v>5</v>
       </c>
-      <c r="M8" s="42">
+      <c r="M8" s="40">
         <v>4</v>
       </c>
-      <c r="O8" s="48">
+      <c r="O8" s="40">
         <v>7</v>
       </c>
-      <c r="P8" s="48" t="s">
+      <c r="P8" s="40" t="s">
         <v>803</v>
       </c>
-      <c r="Q8" s="48" t="s">
+      <c r="Q8" s="40" t="s">
         <v>833</v>
       </c>
-      <c r="R8" s="48" t="s">
+      <c r="R8" s="40" t="s">
         <v>811</v>
       </c>
-      <c r="S8" s="48" t="s">
+      <c r="S8" s="40" t="s">
         <v>830</v>
       </c>
-      <c r="T8" s="48">
+      <c r="T8" s="40">
         <v>7</v>
       </c>
-      <c r="U8" s="48" t="s">
+      <c r="U8" s="40" t="s">
         <v>818</v>
       </c>
-      <c r="V8" s="48" t="s">
+      <c r="V8" s="40" t="s">
         <v>802</v>
       </c>
-      <c r="W8" s="48" t="s">
+      <c r="W8" s="40" t="s">
         <v>801</v>
       </c>
-      <c r="X8" s="48" t="s">
+      <c r="X8" s="40" t="s">
         <v>955</v>
       </c>
-      <c r="Y8" s="48" t="s">
+      <c r="Y8" s="40" t="s">
         <v>810</v>
       </c>
-      <c r="Z8" s="48" t="s">
+      <c r="Z8" s="40" t="s">
         <v>809</v>
       </c>
-      <c r="AA8" s="48" t="s">
+      <c r="AA8" s="40" t="s">
         <v>962</v>
       </c>
-      <c r="AB8" s="48">
+      <c r="AB8" s="40">
         <v>6</v>
       </c>
-      <c r="AC8" s="48">
+      <c r="AC8" s="40">
         <v>5</v>
       </c>
-      <c r="AD8" s="48">
+      <c r="AD8" s="40">
         <v>4</v>
       </c>
-      <c r="AF8" s="59">
+      <c r="AF8" s="52">
         <v>7</v>
       </c>
-      <c r="AG8" s="53" t="s">
+      <c r="AG8" s="40" t="s">
         <v>803</v>
       </c>
-      <c r="AH8" s="53" t="s">
+      <c r="AH8" s="40" t="s">
         <v>917</v>
       </c>
-      <c r="AI8" s="53" t="s">
+      <c r="AI8" s="40" t="s">
         <v>941</v>
       </c>
-      <c r="AJ8" s="53" t="s">
+      <c r="AJ8" s="40" t="s">
         <v>811</v>
       </c>
-      <c r="AK8" s="53" t="s">
+      <c r="AK8" s="40" t="s">
         <v>923</v>
       </c>
-      <c r="AL8" s="53" t="s">
+      <c r="AL8" s="40" t="s">
         <v>947</v>
       </c>
-      <c r="AM8" s="53">
+      <c r="AM8" s="40">
         <v>7</v>
       </c>
-      <c r="AN8" s="53" t="s">
+      <c r="AN8" s="40" t="s">
         <v>929</v>
       </c>
-      <c r="AO8" s="60" t="s">
+      <c r="AO8" s="53" t="s">
         <v>935</v>
       </c>
-      <c r="AP8" s="48" t="s">
+      <c r="AP8" s="40" t="s">
         <v>802</v>
       </c>
-      <c r="AQ8" s="48" t="s">
+      <c r="AQ8" s="40" t="s">
         <v>801</v>
       </c>
-      <c r="AR8" s="42" t="s">
+      <c r="AR8" s="40" t="s">
         <v>955</v>
       </c>
-      <c r="AS8" s="48" t="s">
+      <c r="AS8" s="40" t="s">
         <v>810</v>
       </c>
-      <c r="AT8" s="48" t="s">
+      <c r="AT8" s="40" t="s">
         <v>809</v>
       </c>
-      <c r="AU8" s="42" t="s">
+      <c r="AU8" s="40" t="s">
         <v>808</v>
       </c>
-      <c r="AV8" s="48">
+      <c r="AV8" s="40">
         <v>6</v>
       </c>
-      <c r="AW8" s="48">
+      <c r="AW8" s="40">
         <v>5</v>
       </c>
-      <c r="AX8" s="42">
+      <c r="AX8" s="40">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:50">
-      <c r="A9" s="42">
+      <c r="A9" s="40">
         <v>8</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="40" t="s">
         <v>804</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="40" t="s">
         <v>812</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="40">
         <v>8</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="40" t="s">
         <v>803</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="40" t="s">
         <v>802</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="40" t="s">
         <v>801</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="40" t="s">
         <v>811</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="40" t="s">
         <v>810</v>
       </c>
-      <c r="J9" s="42" t="s">
+      <c r="J9" s="40" t="s">
         <v>809</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="40">
         <v>7</v>
       </c>
-      <c r="L9" s="42">
+      <c r="L9" s="40">
         <v>6</v>
       </c>
-      <c r="M9" s="42">
+      <c r="M9" s="40">
         <v>5</v>
       </c>
-      <c r="O9" s="48">
+      <c r="O9" s="40">
         <v>8</v>
       </c>
-      <c r="P9" s="48" t="s">
+      <c r="P9" s="40" t="s">
         <v>804</v>
       </c>
-      <c r="Q9" s="48" t="s">
+      <c r="Q9" s="40" t="s">
         <v>834</v>
       </c>
-      <c r="R9" s="48" t="s">
+      <c r="R9" s="40" t="s">
         <v>812</v>
       </c>
-      <c r="S9" s="48" t="s">
+      <c r="S9" s="40" t="s">
         <v>831</v>
       </c>
-      <c r="T9" s="48">
+      <c r="T9" s="40">
         <v>8</v>
       </c>
-      <c r="U9" s="48" t="s">
+      <c r="U9" s="40" t="s">
         <v>819</v>
       </c>
-      <c r="V9" s="48" t="s">
+      <c r="V9" s="40" t="s">
         <v>803</v>
       </c>
-      <c r="W9" s="48" t="s">
+      <c r="W9" s="40" t="s">
         <v>802</v>
       </c>
-      <c r="X9" s="48" t="s">
+      <c r="X9" s="40" t="s">
         <v>801</v>
       </c>
-      <c r="Y9" s="48" t="s">
+      <c r="Y9" s="40" t="s">
         <v>811</v>
       </c>
-      <c r="Z9" s="48" t="s">
+      <c r="Z9" s="40" t="s">
         <v>810</v>
       </c>
-      <c r="AA9" s="48" t="s">
+      <c r="AA9" s="40" t="s">
         <v>809</v>
       </c>
-      <c r="AB9" s="48">
+      <c r="AB9" s="40">
         <v>7</v>
       </c>
-      <c r="AC9" s="48">
+      <c r="AC9" s="40">
         <v>6</v>
       </c>
-      <c r="AD9" s="48">
+      <c r="AD9" s="40">
         <v>5</v>
       </c>
-      <c r="AF9" s="59">
+      <c r="AF9" s="52">
         <v>8</v>
       </c>
-      <c r="AG9" s="53" t="s">
+      <c r="AG9" s="40" t="s">
         <v>804</v>
       </c>
-      <c r="AH9" s="53" t="s">
+      <c r="AH9" s="40" t="s">
         <v>918</v>
       </c>
-      <c r="AI9" s="53" t="s">
+      <c r="AI9" s="40" t="s">
         <v>942</v>
       </c>
-      <c r="AJ9" s="53" t="s">
+      <c r="AJ9" s="40" t="s">
         <v>812</v>
       </c>
-      <c r="AK9" s="53" t="s">
+      <c r="AK9" s="40" t="s">
         <v>924</v>
       </c>
-      <c r="AL9" s="53" t="s">
+      <c r="AL9" s="40" t="s">
         <v>948</v>
       </c>
-      <c r="AM9" s="53">
+      <c r="AM9" s="40">
         <v>8</v>
       </c>
-      <c r="AN9" s="53" t="s">
+      <c r="AN9" s="40" t="s">
         <v>930</v>
       </c>
-      <c r="AO9" s="60" t="s">
+      <c r="AO9" s="53" t="s">
         <v>936</v>
       </c>
-      <c r="AP9" s="48" t="s">
+      <c r="AP9" s="40" t="s">
         <v>803</v>
       </c>
-      <c r="AQ9" s="48" t="s">
+      <c r="AQ9" s="40" t="s">
         <v>802</v>
       </c>
-      <c r="AR9" s="48" t="s">
+      <c r="AR9" s="40" t="s">
         <v>801</v>
       </c>
-      <c r="AS9" s="48" t="s">
+      <c r="AS9" s="40" t="s">
         <v>811</v>
       </c>
-      <c r="AT9" s="48" t="s">
+      <c r="AT9" s="40" t="s">
         <v>810</v>
       </c>
-      <c r="AU9" s="48" t="s">
+      <c r="AU9" s="40" t="s">
         <v>809</v>
       </c>
-      <c r="AV9" s="48">
+      <c r="AV9" s="40">
         <v>7</v>
       </c>
-      <c r="AW9" s="48">
+      <c r="AW9" s="40">
         <v>6</v>
       </c>
-      <c r="AX9" s="48">
+      <c r="AX9" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:50">
-      <c r="A10" s="42">
+      <c r="A10" s="40">
         <v>9</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="40" t="s">
         <v>805</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="40" t="s">
         <v>813</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="40">
         <v>9</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="40" t="s">
         <v>804</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="40" t="s">
         <v>803</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="40" t="s">
         <v>802</v>
       </c>
-      <c r="H10" s="42" t="s">
+      <c r="H10" s="40" t="s">
         <v>812</v>
       </c>
-      <c r="I10" s="42" t="s">
+      <c r="I10" s="40" t="s">
         <v>811</v>
       </c>
-      <c r="J10" s="42" t="s">
+      <c r="J10" s="40" t="s">
         <v>810</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="40">
         <v>8</v>
       </c>
-      <c r="L10" s="42">
+      <c r="L10" s="40">
         <v>7</v>
       </c>
-      <c r="M10" s="42">
+      <c r="M10" s="40">
         <v>6</v>
       </c>
-      <c r="O10" s="48">
+      <c r="O10" s="40">
         <v>9</v>
       </c>
-      <c r="P10" s="48" t="s">
+      <c r="P10" s="40" t="s">
         <v>805</v>
       </c>
-      <c r="Q10" s="48" t="s">
+      <c r="Q10" s="40" t="s">
         <v>835</v>
       </c>
-      <c r="R10" s="48" t="s">
+      <c r="R10" s="40" t="s">
         <v>813</v>
       </c>
-      <c r="S10" s="48" t="s">
+      <c r="S10" s="40" t="s">
         <v>832</v>
       </c>
-      <c r="T10" s="48">
+      <c r="T10" s="40">
         <v>9</v>
       </c>
-      <c r="U10" s="48" t="s">
+      <c r="U10" s="40" t="s">
         <v>820</v>
       </c>
-      <c r="V10" s="48" t="s">
+      <c r="V10" s="40" t="s">
         <v>804</v>
       </c>
-      <c r="W10" s="48" t="s">
+      <c r="W10" s="40" t="s">
         <v>803</v>
       </c>
-      <c r="X10" s="48" t="s">
+      <c r="X10" s="40" t="s">
         <v>802</v>
       </c>
-      <c r="Y10" s="48" t="s">
+      <c r="Y10" s="40" t="s">
         <v>812</v>
       </c>
-      <c r="Z10" s="48" t="s">
+      <c r="Z10" s="40" t="s">
         <v>811</v>
       </c>
-      <c r="AA10" s="48" t="s">
+      <c r="AA10" s="40" t="s">
         <v>810</v>
       </c>
-      <c r="AB10" s="48">
+      <c r="AB10" s="40">
         <v>8</v>
       </c>
-      <c r="AC10" s="48">
+      <c r="AC10" s="40">
         <v>7</v>
       </c>
-      <c r="AD10" s="48">
+      <c r="AD10" s="40">
         <v>6</v>
       </c>
-      <c r="AF10" s="59">
+      <c r="AF10" s="52">
         <v>9</v>
       </c>
-      <c r="AG10" s="53" t="s">
+      <c r="AG10" s="40" t="s">
         <v>805</v>
       </c>
-      <c r="AH10" s="53" t="s">
+      <c r="AH10" s="40" t="s">
         <v>919</v>
       </c>
-      <c r="AI10" s="53" t="s">
+      <c r="AI10" s="40" t="s">
         <v>943</v>
       </c>
-      <c r="AJ10" s="53" t="s">
+      <c r="AJ10" s="40" t="s">
         <v>813</v>
       </c>
-      <c r="AK10" s="53" t="s">
+      <c r="AK10" s="40" t="s">
         <v>925</v>
       </c>
-      <c r="AL10" s="53" t="s">
+      <c r="AL10" s="40" t="s">
         <v>949</v>
       </c>
-      <c r="AM10" s="53">
+      <c r="AM10" s="40">
         <v>9</v>
       </c>
-      <c r="AN10" s="53" t="s">
+      <c r="AN10" s="40" t="s">
         <v>931</v>
       </c>
-      <c r="AO10" s="60" t="s">
+      <c r="AO10" s="53" t="s">
         <v>937</v>
       </c>
-      <c r="AP10" s="48" t="s">
+      <c r="AP10" s="40" t="s">
         <v>804</v>
       </c>
-      <c r="AQ10" s="48" t="s">
+      <c r="AQ10" s="40" t="s">
         <v>803</v>
       </c>
-      <c r="AR10" s="48" t="s">
+      <c r="AR10" s="40" t="s">
         <v>802</v>
       </c>
-      <c r="AS10" s="48" t="s">
+      <c r="AS10" s="40" t="s">
         <v>812</v>
       </c>
-      <c r="AT10" s="48" t="s">
+      <c r="AT10" s="40" t="s">
         <v>811</v>
       </c>
-      <c r="AU10" s="48" t="s">
+      <c r="AU10" s="40" t="s">
         <v>810</v>
       </c>
-      <c r="AV10" s="48">
+      <c r="AV10" s="40">
         <v>8</v>
       </c>
-      <c r="AW10" s="48">
+      <c r="AW10" s="40">
         <v>7</v>
       </c>
-      <c r="AX10" s="48">
+      <c r="AX10" s="40">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:50">
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="56" t="s">
         <v>804</v>
       </c>
-      <c r="G11" s="66" t="s">
+      <c r="G11" s="56" t="s">
         <v>803</v>
       </c>
-      <c r="H11" s="66" t="s">
+      <c r="H11" s="56" t="s">
         <v>813</v>
       </c>
-      <c r="I11" s="66" t="s">
+      <c r="I11" s="56" t="s">
         <v>812</v>
       </c>
-      <c r="J11" s="66" t="s">
+      <c r="J11" s="56" t="s">
         <v>811</v>
       </c>
-      <c r="K11" s="66">
+      <c r="K11" s="56">
         <v>9</v>
       </c>
-      <c r="L11" s="66">
+      <c r="L11" s="56">
         <v>8</v>
       </c>
-      <c r="M11" s="66">
+      <c r="M11" s="56">
         <v>7</v>
       </c>
-      <c r="Q11" s="49" t="s">
+      <c r="Q11" s="46" t="s">
         <v>838</v>
       </c>
-      <c r="S11" s="49" t="s">
+      <c r="S11" s="46" t="s">
         <v>837</v>
       </c>
-      <c r="U11" s="49" t="s">
+      <c r="U11" s="46" t="s">
         <v>836</v>
       </c>
-      <c r="V11" s="66" t="s">
+      <c r="V11" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="W11" s="66" t="s">
+      <c r="W11" s="56" t="s">
         <v>804</v>
       </c>
-      <c r="X11" s="66" t="s">
+      <c r="X11" s="56" t="s">
         <v>803</v>
       </c>
-      <c r="Y11" s="66" t="s">
+      <c r="Y11" s="56" t="s">
         <v>813</v>
       </c>
-      <c r="Z11" s="66" t="s">
+      <c r="Z11" s="56" t="s">
         <v>963</v>
       </c>
-      <c r="AA11" s="66" t="s">
+      <c r="AA11" s="56" t="s">
         <v>811</v>
       </c>
-      <c r="AB11" s="66">
+      <c r="AB11" s="56">
         <v>9</v>
       </c>
-      <c r="AC11" s="66">
+      <c r="AC11" s="56">
         <v>8</v>
       </c>
-      <c r="AD11" s="66">
+      <c r="AD11" s="56">
         <v>7</v>
       </c>
-      <c r="AF11" s="61"/>
-      <c r="AG11" s="54"/>
-      <c r="AH11" s="62" t="s">
+      <c r="AF11" s="54"/>
+      <c r="AH11" s="46" t="s">
         <v>960</v>
       </c>
-      <c r="AI11" s="63" t="s">
+      <c r="AI11" s="55" t="s">
         <v>961</v>
       </c>
-      <c r="AJ11" s="54"/>
-      <c r="AK11" s="62" t="s">
+      <c r="AK11" s="46" t="s">
         <v>958</v>
       </c>
-      <c r="AL11" s="63" t="s">
+      <c r="AL11" s="55" t="s">
         <v>959</v>
       </c>
-      <c r="AM11" s="54"/>
-      <c r="AN11" s="62" t="s">
+      <c r="AN11" s="46" t="s">
         <v>956</v>
       </c>
-      <c r="AO11" s="67" t="s">
+      <c r="AO11" s="57" t="s">
         <v>957</v>
       </c>
-      <c r="AP11" s="66" t="s">
+      <c r="AP11" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="AQ11" s="66" t="s">
+      <c r="AQ11" s="56" t="s">
         <v>804</v>
       </c>
-      <c r="AR11" s="66" t="s">
+      <c r="AR11" s="56" t="s">
         <v>803</v>
       </c>
-      <c r="AS11" s="66" t="s">
+      <c r="AS11" s="56" t="s">
         <v>813</v>
       </c>
-      <c r="AT11" s="66" t="s">
+      <c r="AT11" s="56" t="s">
         <v>963</v>
       </c>
-      <c r="AU11" s="66" t="s">
+      <c r="AU11" s="56" t="s">
         <v>811</v>
       </c>
-      <c r="AV11" s="66">
+      <c r="AV11" s="56">
         <v>9</v>
       </c>
-      <c r="AW11" s="66">
+      <c r="AW11" s="56">
         <v>8</v>
       </c>
-      <c r="AX11" s="66">
+      <c r="AX11" s="56">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:50">
-      <c r="E12" s="41"/>
-      <c r="F12" s="41" t="s">
+      <c r="E12" s="39"/>
+      <c r="F12" s="39" t="s">
         <v>805</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="39" t="s">
         <v>804</v>
       </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41" t="s">
+      <c r="H12" s="39"/>
+      <c r="I12" s="39" t="s">
         <v>813</v>
       </c>
-      <c r="J12" s="41" t="s">
+      <c r="J12" s="39" t="s">
         <v>812</v>
       </c>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41">
+      <c r="K12" s="39"/>
+      <c r="L12" s="39">
         <v>9</v>
       </c>
-      <c r="M12" s="41">
+      <c r="M12" s="39">
         <v>8</v>
       </c>
-      <c r="Q12" s="49" t="s">
+      <c r="Q12" s="46" t="s">
         <v>841</v>
       </c>
-      <c r="S12" s="49" t="s">
+      <c r="S12" s="46" t="s">
         <v>840</v>
       </c>
-      <c r="U12" s="49" t="s">
+      <c r="U12" s="46" t="s">
         <v>839</v>
       </c>
-      <c r="V12" s="49" t="s">
+      <c r="V12" s="46" t="s">
         <v>838</v>
       </c>
-      <c r="W12" s="48" t="s">
+      <c r="W12" s="40" t="s">
         <v>805</v>
       </c>
-      <c r="X12" s="48" t="s">
+      <c r="X12" s="40" t="s">
         <v>804</v>
       </c>
-      <c r="Y12" s="49" t="s">
+      <c r="Y12" s="46" t="s">
         <v>837</v>
       </c>
-      <c r="Z12" s="48" t="s">
+      <c r="Z12" s="40" t="s">
         <v>813</v>
       </c>
-      <c r="AA12" s="48" t="s">
+      <c r="AA12" s="40" t="s">
         <v>963</v>
       </c>
-      <c r="AB12" s="49" t="s">
+      <c r="AB12" s="46" t="s">
         <v>836</v>
       </c>
-      <c r="AC12" s="48">
+      <c r="AC12" s="40">
         <v>9</v>
       </c>
-      <c r="AD12" s="48">
+      <c r="AD12" s="40">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:50">
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41" t="s">
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39" t="s">
         <v>805</v>
       </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41" t="s">
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39" t="s">
         <v>813</v>
       </c>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41">
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39">
         <v>9</v>
       </c>
-      <c r="Q13" s="49" t="s">
+      <c r="Q13" s="46" t="s">
         <v>844</v>
       </c>
-      <c r="S13" s="49" t="s">
+      <c r="S13" s="46" t="s">
         <v>843</v>
       </c>
-      <c r="U13" s="49" t="s">
+      <c r="U13" s="46" t="s">
         <v>842</v>
       </c>
-      <c r="V13" s="49" t="s">
+      <c r="V13" s="46" t="s">
         <v>841</v>
       </c>
-      <c r="W13" s="49" t="s">
+      <c r="W13" s="46" t="s">
         <v>838</v>
       </c>
-      <c r="X13" s="48" t="s">
+      <c r="X13" s="40" t="s">
         <v>805</v>
       </c>
-      <c r="Y13" s="49" t="s">
+      <c r="Y13" s="46" t="s">
         <v>840</v>
       </c>
-      <c r="Z13" s="49" t="s">
+      <c r="Z13" s="46" t="s">
         <v>837</v>
       </c>
-      <c r="AA13" s="48" t="s">
+      <c r="AA13" s="40" t="s">
         <v>813</v>
       </c>
-      <c r="AB13" s="49" t="s">
+      <c r="AB13" s="46" t="s">
         <v>839</v>
       </c>
-      <c r="AC13" s="49" t="s">
+      <c r="AC13" s="46" t="s">
         <v>836</v>
       </c>
-      <c r="AD13" s="48">
+      <c r="AD13" s="40">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:50">
-      <c r="Q14" s="49" t="s">
+      <c r="Q14" s="46" t="s">
         <v>845</v>
       </c>
-      <c r="S14" s="49" t="s">
+      <c r="S14" s="46" t="s">
         <v>846</v>
       </c>
-      <c r="U14" s="49" t="s">
+      <c r="U14" s="46" t="s">
         <v>847</v>
       </c>
-      <c r="V14" s="49" t="s">
+      <c r="V14" s="46" t="s">
         <v>844</v>
       </c>
-      <c r="W14" s="49" t="s">
+      <c r="W14" s="46" t="s">
         <v>841</v>
       </c>
-      <c r="X14" s="49" t="s">
+      <c r="X14" s="46" t="s">
         <v>838</v>
       </c>
-      <c r="Y14" s="49" t="s">
+      <c r="Y14" s="46" t="s">
         <v>843</v>
       </c>
-      <c r="Z14" s="49" t="s">
+      <c r="Z14" s="46" t="s">
         <v>840</v>
       </c>
-      <c r="AA14" s="49" t="s">
+      <c r="AA14" s="46" t="s">
         <v>837</v>
       </c>
-      <c r="AB14" s="49" t="s">
+      <c r="AB14" s="46" t="s">
         <v>842</v>
       </c>
-      <c r="AC14" s="49" t="s">
+      <c r="AC14" s="46" t="s">
         <v>839</v>
       </c>
-      <c r="AD14" s="49" t="s">
+      <c r="AD14" s="46" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="15" spans="1:50">
-      <c r="Q15" s="49" t="s">
+      <c r="Q15" s="46" t="s">
         <v>888</v>
       </c>
-      <c r="S15" s="49" t="s">
+      <c r="S15" s="46" t="s">
         <v>868</v>
       </c>
-      <c r="U15" s="49" t="s">
+      <c r="U15" s="46" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="16" spans="1:50">
-      <c r="Q16" s="49" t="s">
+      <c r="Q16" s="46" t="s">
         <v>889</v>
       </c>
-      <c r="S16" s="49" t="s">
+      <c r="S16" s="46" t="s">
         <v>869</v>
       </c>
-      <c r="U16" s="49" t="s">
+      <c r="U16" s="46" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="17" spans="17:21">
-      <c r="Q17" s="49" t="s">
+      <c r="Q17" s="46" t="s">
         <v>890</v>
       </c>
-      <c r="S17" s="49" t="s">
+      <c r="S17" s="46" t="s">
         <v>870</v>
       </c>
-      <c r="U17" s="49" t="s">
+      <c r="U17" s="46" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="18" spans="17:21">
-      <c r="Q18" s="49" t="s">
+      <c r="Q18" s="46" t="s">
         <v>891</v>
       </c>
-      <c r="S18" s="49" t="s">
+      <c r="S18" s="46" t="s">
         <v>871</v>
       </c>
-      <c r="U18" s="49" t="s">
+      <c r="U18" s="46" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="19" spans="17:21">
-      <c r="Q19" s="49" t="s">
+      <c r="Q19" s="46" t="s">
         <v>892</v>
       </c>
-      <c r="S19" s="49" t="s">
+      <c r="S19" s="46" t="s">
         <v>872</v>
       </c>
-      <c r="U19" s="49" t="s">
+      <c r="U19" s="46" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="20" spans="17:21">
-      <c r="Q20" s="49" t="s">
+      <c r="Q20" s="46" t="s">
         <v>893</v>
       </c>
-      <c r="S20" s="49" t="s">
+      <c r="S20" s="46" t="s">
         <v>873</v>
       </c>
-      <c r="U20" s="49" t="s">
+      <c r="U20" s="46" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="21" spans="17:21">
-      <c r="Q21" s="49" t="s">
+      <c r="Q21" s="46" t="s">
         <v>894</v>
       </c>
-      <c r="S21" s="49" t="s">
+      <c r="S21" s="46" t="s">
         <v>874</v>
       </c>
-      <c r="U21" s="49" t="s">
+      <c r="U21" s="46" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="22" spans="17:21">
-      <c r="Q22" s="49" t="s">
+      <c r="Q22" s="46" t="s">
         <v>895</v>
       </c>
-      <c r="S22" s="49" t="s">
+      <c r="S22" s="46" t="s">
         <v>875</v>
       </c>
-      <c r="U22" s="49" t="s">
+      <c r="U22" s="46" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="23" spans="17:21">
-      <c r="Q23" s="49" t="s">
+      <c r="Q23" s="46" t="s">
         <v>896</v>
       </c>
-      <c r="S23" s="49" t="s">
+      <c r="S23" s="46" t="s">
         <v>876</v>
       </c>
-      <c r="U23" s="49" t="s">
+      <c r="U23" s="46" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="24" spans="17:21">
-      <c r="Q24" s="49" t="s">
+      <c r="Q24" s="46" t="s">
         <v>897</v>
       </c>
-      <c r="S24" s="49" t="s">
+      <c r="S24" s="46" t="s">
         <v>877</v>
       </c>
-      <c r="U24" s="49" t="s">
+      <c r="U24" s="46" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="25" spans="17:21">
-      <c r="Q25" s="49" t="s">
+      <c r="Q25" s="46" t="s">
         <v>898</v>
       </c>
-      <c r="S25" s="49" t="s">
+      <c r="S25" s="46" t="s">
         <v>878</v>
       </c>
-      <c r="U25" s="49" t="s">
+      <c r="U25" s="46" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="26" spans="17:21">
-      <c r="Q26" s="49" t="s">
+      <c r="Q26" s="46" t="s">
         <v>899</v>
       </c>
-      <c r="S26" s="49" t="s">
+      <c r="S26" s="46" t="s">
         <v>879</v>
       </c>
-      <c r="U26" s="49" t="s">
+      <c r="U26" s="46" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="27" spans="17:21">
-      <c r="Q27" s="49" t="s">
+      <c r="Q27" s="46" t="s">
         <v>900</v>
       </c>
-      <c r="S27" s="49" t="s">
+      <c r="S27" s="46" t="s">
         <v>880</v>
       </c>
-      <c r="U27" s="49" t="s">
+      <c r="U27" s="46" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="28" spans="17:21">
-      <c r="Q28" s="49" t="s">
+      <c r="Q28" s="46" t="s">
         <v>901</v>
       </c>
-      <c r="S28" s="49" t="s">
+      <c r="S28" s="46" t="s">
         <v>881</v>
       </c>
-      <c r="U28" s="49" t="s">
+      <c r="U28" s="46" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="29" spans="17:21">
-      <c r="Q29" s="49" t="s">
+      <c r="Q29" s="46" t="s">
         <v>902</v>
       </c>
-      <c r="S29" s="49" t="s">
+      <c r="S29" s="46" t="s">
         <v>882</v>
       </c>
-      <c r="U29" s="49" t="s">
+      <c r="U29" s="46" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="30" spans="17:21">
-      <c r="Q30" s="49" t="s">
+      <c r="Q30" s="46" t="s">
         <v>903</v>
       </c>
-      <c r="S30" s="49" t="s">
+      <c r="S30" s="46" t="s">
         <v>883</v>
       </c>
-      <c r="U30" s="49" t="s">
+      <c r="U30" s="46" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="31" spans="17:21">
-      <c r="Q31" s="49" t="s">
+      <c r="Q31" s="46" t="s">
         <v>904</v>
       </c>
-      <c r="S31" s="49" t="s">
+      <c r="S31" s="46" t="s">
         <v>884</v>
       </c>
-      <c r="U31" s="49" t="s">
+      <c r="U31" s="46" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="32" spans="17:21">
-      <c r="Q32" s="49" t="s">
+      <c r="Q32" s="46" t="s">
         <v>905</v>
       </c>
-      <c r="S32" s="49" t="s">
+      <c r="S32" s="46" t="s">
         <v>885</v>
       </c>
-      <c r="U32" s="49" t="s">
+      <c r="U32" s="46" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="33" spans="5:21">
-      <c r="E33" s="38"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="Q33" s="49" t="s">
+      <c r="E33" s="36"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="Q33" s="46" t="s">
         <v>906</v>
       </c>
-      <c r="S33" s="49" t="s">
+      <c r="S33" s="46" t="s">
         <v>886</v>
       </c>
-      <c r="U33" s="49" t="s">
+      <c r="U33" s="46" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="34" spans="5:21">
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="Q34" s="49" t="s">
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="Q34" s="46" t="s">
         <v>907</v>
       </c>
-      <c r="S34" s="49" t="s">
+      <c r="S34" s="46" t="s">
         <v>887</v>
       </c>
-      <c r="U34" s="49" t="s">
+      <c r="U34" s="46" t="s">
         <v>867</v>
       </c>
     </row>
